--- a/Databases/MobiedockDataFiles/Excel Tables:Other Docs/Location.xlsx
+++ b/Databases/MobiedockDataFiles/Excel Tables:Other Docs/Location.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eshoji/Desktop/MobiedockDataFiles/Excel Tables:Other Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Desktop/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66C94664-4F3A-0842-AE01-F30C207DB811}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED1FEA-71B8-3045-B9A9-DA5765C96468}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{D3F5379D-C067-2F45-AAFD-93EA207DCAA6}"/>
+    <workbookView xWindow="4620" yWindow="460" windowWidth="14280" windowHeight="15540" xr2:uid="{D3F5379D-C067-2F45-AAFD-93EA207DCAA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Location ID</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -49,6 +40,15 @@
   </si>
   <si>
     <t>L5</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -406,25 +406,25 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>34.272526139999997</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>34.597982709999997</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>33.507311989999998</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>33.826875719999997</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>33.59311512</v>
